--- a/Luban/ExcelConfig/Datas/actor.xlsx
+++ b/Luban/ExcelConfig/Datas/actor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="62">
   <si>
     <t>##var</t>
   </si>
@@ -131,10 +131,22 @@
     <t>玩家自动释放技能AI</t>
   </si>
   <si>
-    <t>待机;停止;方向移动;点击移动;点击移动-内部;跃进;</t>
+    <t>待机;停止;方向移动;点击移动;</t>
   </si>
   <si>
     <t>劈砍卡牌</t>
+  </si>
+  <si>
+    <t>猎人</t>
+  </si>
+  <si>
+    <t>lieren</t>
+  </si>
+  <si>
+    <t>huntsman</t>
+  </si>
+  <si>
+    <t>月之投射卡牌</t>
   </si>
   <si>
     <t>#</t>
@@ -1135,14 +1147,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1337,6 +1349,35 @@
         <v>39</v>
       </c>
     </row>
+    <row r="11" spans="2:10">
+      <c r="B11">
+        <v>10001</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1348,7 +1389,7 @@
   <sheetPr/>
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
@@ -1405,13 +1446,13 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>12</v>
@@ -1528,22 +1569,22 @@
         <v>20001</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="2:10">
@@ -1551,28 +1592,28 @@
         <v>20002</v>
       </c>
       <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
         <v>45</v>
       </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="2:10">
@@ -1580,28 +1621,28 @@
         <v>20003</v>
       </c>
       <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" t="s">
         <v>48</v>
       </c>
-      <c r="D12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" t="s">
-        <v>44</v>
-      </c>
       <c r="J12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="2:14">
@@ -1609,34 +1650,34 @@
         <v>20004</v>
       </c>
       <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" t="s">
         <v>51</v>
       </c>
-      <c r="D13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" t="s">
-        <v>47</v>
-      </c>
       <c r="L13" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="N13" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="2:14">
@@ -1644,34 +1685,34 @@
         <v>20005</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" t="s">
         <v>56</v>
       </c>
-      <c r="L14" t="s">
-        <v>52</v>
-      </c>
       <c r="N14" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="2:14">
@@ -1679,34 +1720,34 @@
         <v>20006</v>
       </c>
       <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" t="s">
+        <v>56</v>
+      </c>
+      <c r="N15" t="s">
         <v>57</v>
-      </c>
-      <c r="D15" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" t="s">
-        <v>50</v>
-      </c>
-      <c r="L15" t="s">
-        <v>52</v>
-      </c>
-      <c r="N15" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/ExcelConfig/Datas/actor.xlsx
+++ b/Luban/ExcelConfig/Datas/actor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="63">
   <si>
     <t>##var</t>
   </si>
@@ -161,25 +161,34 @@
     <t>个体;怪物</t>
   </si>
   <si>
-    <t>待机;停止;方向移动;点击移动;点击移动-内部;</t>
-  </si>
-  <si>
-    <t>靶子-战士</t>
+    <t>靶子战士</t>
+  </si>
+  <si>
+    <t>待机;停止;</t>
   </si>
   <si>
     <t>怪物AI1</t>
   </si>
   <si>
-    <t>怪物横砍卡牌</t>
-  </si>
-  <si>
-    <t>靶子-弓箭手</t>
+    <t>待机;停止;方向移动;点击移动;怪物横砍;</t>
+  </si>
+  <si>
+    <t>靶子骑士</t>
+  </si>
+  <si>
+    <t>kulou_qs</t>
+  </si>
+  <si>
+    <t>待机;停止;方向移动;点击移动;怪物劈砍;</t>
+  </si>
+  <si>
+    <t>靶子弓箭手</t>
   </si>
   <si>
     <t>kulou_gjs</t>
   </si>
   <si>
-    <t>怪物快射卡牌</t>
+    <t>待机;停止;方向移动;点击移动;怪物快射;</t>
   </si>
   <si>
     <t>骷髅战士</t>
@@ -192,12 +201,6 @@
   </si>
   <si>
     <t>骷髅骑士</t>
-  </si>
-  <si>
-    <t>kulou_qs</t>
-  </si>
-  <si>
-    <t>怪物劈砍卡牌</t>
   </si>
   <si>
     <t>骷髅弓箭手</t>
@@ -1149,7 +1152,7 @@
   <sheetPr/>
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -1387,10 +1390,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1564,9 +1567,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" customFormat="1" spans="2:9">
       <c r="B10">
-        <v>20001</v>
+        <v>20000</v>
       </c>
       <c r="C10" t="s">
         <v>45</v>
@@ -1581,21 +1584,21 @@
         <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11">
+        <v>20001</v>
+      </c>
+      <c r="C11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11">
-        <v>20002</v>
-      </c>
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
         <v>46</v>
@@ -1604,27 +1607,24 @@
         <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>50</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:9">
       <c r="B12">
-        <v>20003</v>
+        <v>20002</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
         <v>53</v>
@@ -1633,21 +1633,18 @@
         <v>47</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>50</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:9">
       <c r="B13">
-        <v>20004</v>
+        <v>20003</v>
       </c>
       <c r="C13" t="s">
         <v>55</v>
@@ -1656,7 +1653,7 @@
         <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s">
         <v>47</v>
@@ -1668,21 +1665,12 @@
         <v>50</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" t="s">
-        <v>51</v>
-      </c>
-      <c r="L13" t="s">
-        <v>56</v>
-      </c>
-      <c r="N13" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="14" spans="2:14">
       <c r="B14">
-        <v>20005</v>
+        <v>20004</v>
       </c>
       <c r="C14" t="s">
         <v>58</v>
@@ -1691,7 +1679,7 @@
         <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
         <v>47</v>
@@ -1703,21 +1691,18 @@
         <v>50</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
-      </c>
-      <c r="J14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" t="s">
+        <v>59</v>
+      </c>
+      <c r="N14" t="s">
         <v>60</v>
-      </c>
-      <c r="L14" t="s">
-        <v>56</v>
-      </c>
-      <c r="N14" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="15" spans="2:14">
       <c r="B15">
-        <v>20006</v>
+        <v>20005</v>
       </c>
       <c r="C15" t="s">
         <v>61</v>
@@ -1738,16 +1723,45 @@
         <v>50</v>
       </c>
       <c r="I15" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" t="s">
         <v>54</v>
       </c>
       <c r="L15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16">
+        <v>20006</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" t="s">
         <v>56</v>
       </c>
-      <c r="N15" t="s">
+      <c r="F16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" t="s">
         <v>57</v>
+      </c>
+      <c r="L16" t="s">
+        <v>59</v>
+      </c>
+      <c r="N16" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/ExcelConfig/Datas/actor.xlsx
+++ b/Luban/ExcelConfig/Datas/actor.xlsx
@@ -4,18 +4,31 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="2" r:id="rId1"/>
     <sheet name="Monster" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="66">
   <si>
     <t>##var</t>
   </si>
@@ -147,6 +160,15 @@
   </si>
   <si>
     <t>月之投射卡牌</t>
+  </si>
+  <si>
+    <t>法师</t>
+  </si>
+  <si>
+    <t>fashi</t>
+  </si>
+  <si>
+    <t>mage</t>
   </si>
   <si>
     <t>#</t>
@@ -209,7 +231,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1150,14 +1172,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1381,6 +1403,35 @@
         <v>43</v>
       </c>
     </row>
+    <row r="12" spans="2:10">
+      <c r="B12">
+        <v>10002</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1392,7 +1443,7 @@
   <sheetPr/>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -1449,13 +1500,13 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>12</v>
@@ -1572,22 +1623,22 @@
         <v>20000</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="2:9">
@@ -1595,25 +1646,25 @@
         <v>20001</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="2:9">
@@ -1621,25 +1672,25 @@
         <v>20002</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F12" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -1647,25 +1698,25 @@
         <v>20003</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="2:14">
@@ -1673,31 +1724,31 @@
         <v>20004</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N14" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="2:14">
@@ -1705,31 +1756,31 @@
         <v>20005</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="I15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L15" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="2:14">
@@ -1737,31 +1788,31 @@
         <v>20006</v>
       </c>
       <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" t="s">
         <v>62</v>
       </c>
-      <c r="D16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" t="s">
-        <v>57</v>
-      </c>
-      <c r="L16" t="s">
-        <v>59</v>
-      </c>
       <c r="N16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/ExcelConfig/Datas/actor.xlsx
+++ b/Luban/ExcelConfig/Datas/actor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="2" r:id="rId1"/>
@@ -42,12 +42,12 @@
     <t>view_name</t>
   </si>
   <si>
+    <t>labels</t>
+  </si>
+  <si>
     <t>model_name</t>
   </si>
   <si>
-    <t>labels</t>
-  </si>
-  <si>
     <t>numeric_alias</t>
   </si>
   <si>
@@ -66,7 +66,7 @@
     <t>possible_drops_by_weight</t>
   </si>
   <si>
-    <t>possible_drop_number#default=0`0`0</t>
+    <t>possible_drop_number#default=0,0,0</t>
   </si>
   <si>
     <t>##type</t>
@@ -84,13 +84,13 @@
     <t>(list#sep=;),string</t>
   </si>
   <si>
-    <t>(list#sep=;),drops.DropByProbability</t>
-  </si>
-  <si>
-    <t>(list#sep=;),drops.DropByWeightInfo</t>
-  </si>
-  <si>
-    <t>drops.DropNumberInfo</t>
+    <t>(list#sep=;),drops.DropByProbability#sep=,</t>
+  </si>
+  <si>
+    <t>(list#sep=;),drops.DropByWeightInfo#sep=,</t>
+  </si>
+  <si>
+    <t>drops.DropNumberInfo#sep=,</t>
   </si>
   <si>
     <t>##group</t>
@@ -108,12 +108,12 @@
     <t>角色名</t>
   </si>
   <si>
+    <t>角色标签</t>
+  </si>
+  <si>
     <t>模型名</t>
   </si>
   <si>
-    <t>角色标签</t>
-  </si>
-  <si>
     <t>初始数值</t>
   </si>
   <si>
@@ -135,12 +135,12 @@
     <t>zhanshi</t>
   </si>
   <si>
+    <t>个体;英雄</t>
+  </si>
+  <si>
     <t>warrior</t>
   </si>
   <si>
-    <t>个体;英雄</t>
-  </si>
-  <si>
     <t>玩家自动释放技能AI</t>
   </si>
   <si>
@@ -177,12 +177,12 @@
     <t>靶子</t>
   </si>
   <si>
+    <t>个体;怪物</t>
+  </si>
+  <si>
     <t>kulou_zs</t>
   </si>
   <si>
-    <t>个体;怪物</t>
-  </si>
-  <si>
     <t>靶子战士</t>
   </si>
   <si>
@@ -216,10 +216,10 @@
     <t>骷髅战士</t>
   </si>
   <si>
-    <t>10000`1`1`true;</t>
-  </si>
-  <si>
-    <t>1`1`1;</t>
+    <t>10000,1,1,true;</t>
+  </si>
+  <si>
+    <t>1,1,1;</t>
   </si>
   <si>
     <t>骷髅骑士</t>
@@ -1174,28 +1174,29 @@
   <sheetPr/>
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="8.875" customWidth="1"/>
-    <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="8.125" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="33.5" customWidth="1"/>
-    <col min="8" max="8" width="31.5" customWidth="1"/>
-    <col min="9" max="9" width="42.375" customWidth="1"/>
-    <col min="10" max="10" width="40" customWidth="1"/>
-    <col min="11" max="11" width="43.5" customWidth="1"/>
-    <col min="12" max="12" width="38.5" customWidth="1"/>
+    <col min="1" max="1" width="8.58333333333333" customWidth="1"/>
+    <col min="2" max="2" width="6.91666666666667" customWidth="1"/>
+    <col min="3" max="3" width="6.16666666666667" customWidth="1"/>
+    <col min="4" max="4" width="10.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="34.75" customWidth="1"/>
+    <col min="8" max="8" width="18.5833333333333" customWidth="1"/>
+    <col min="9" max="9" width="26.9166666666667" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
+    <col min="12" max="12" width="40.4166666666667" customWidth="1"/>
+    <col min="13" max="13" width="34.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:13">
@@ -1253,10 +1254,10 @@
         <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>15</v>
@@ -1385,10 +1386,10 @@
         <v>41</v>
       </c>
       <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
         <v>42</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
       </c>
       <c r="G11" t="s">
         <v>40</v>
@@ -1414,10 +1415,10 @@
         <v>45</v>
       </c>
       <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
         <v>46</v>
-      </c>
-      <c r="F12" t="s">
-        <v>36</v>
       </c>
       <c r="G12" t="s">
         <v>44</v>
@@ -1443,25 +1444,26 @@
   <sheetPr/>
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
     <col min="7" max="7" width="35.625" customWidth="1"/>
     <col min="8" max="8" width="8.875" customWidth="1"/>
     <col min="9" max="9" width="41.125" customWidth="1"/>
     <col min="10" max="10" width="16.875" customWidth="1"/>
-    <col min="11" max="12" width="35.125" customWidth="1"/>
+    <col min="11" max="11" width="38.1666666666667" customWidth="1"/>
+    <col min="12" max="12" width="35.125" customWidth="1"/>
     <col min="13" max="14" width="38.75" customWidth="1"/>
-    <col min="15" max="15" width="25.875" customWidth="1"/>
+    <col min="15" max="15" width="37.75" customWidth="1"/>
     <col min="16" max="16" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1526,10 +1528,10 @@
         <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>15</v>
@@ -1678,10 +1680,10 @@
         <v>55</v>
       </c>
       <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
         <v>56</v>
-      </c>
-      <c r="F12" t="s">
-        <v>50</v>
       </c>
       <c r="G12" t="s">
         <v>55</v>
@@ -1704,10 +1706,10 @@
         <v>58</v>
       </c>
       <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
         <v>59</v>
-      </c>
-      <c r="F13" t="s">
-        <v>50</v>
       </c>
       <c r="G13" t="s">
         <v>58</v>
@@ -1762,10 +1764,10 @@
         <v>64</v>
       </c>
       <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" t="s">
         <v>56</v>
-      </c>
-      <c r="F15" t="s">
-        <v>50</v>
       </c>
       <c r="G15" t="s">
         <v>64</v>
@@ -1794,10 +1796,10 @@
         <v>65</v>
       </c>
       <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" t="s">
         <v>59</v>
-      </c>
-      <c r="F16" t="s">
-        <v>50</v>
       </c>
       <c r="G16" t="s">
         <v>65</v>

--- a/Luban/ExcelConfig/Datas/actor.xlsx
+++ b/Luban/ExcelConfig/Datas/actor.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680" activeTab="1"/>
+    <workbookView windowHeight="17680" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="2" r:id="rId1"/>
     <sheet name="Monster" sheetId="3" r:id="rId2"/>
+    <sheet name="Minion" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="71">
   <si>
     <t>##var</t>
   </si>
@@ -57,9 +58,6 @@
     <t>org_abilitys</t>
   </si>
   <si>
-    <t>org_cards</t>
-  </si>
-  <si>
     <t>possible_drops_by_probability</t>
   </si>
   <si>
@@ -123,9 +121,6 @@
     <t>初始技能</t>
   </si>
   <si>
-    <t>初始卡牌</t>
-  </si>
-  <si>
     <t>int#ref=actor.TbActorNumericConfig</t>
   </si>
   <si>
@@ -144,10 +139,7 @@
     <t>玩家自动释放技能AI</t>
   </si>
   <si>
-    <t>待机;停止;方向移动;点击移动;</t>
-  </si>
-  <si>
-    <t>劈砍卡牌</t>
+    <t>待机;停止;方向移动;点击移动;劈砍</t>
   </si>
   <si>
     <t>猎人</t>
@@ -159,7 +151,7 @@
     <t>huntsman</t>
   </si>
   <si>
-    <t>月之投射卡牌</t>
+    <t>待机;停止;方向移动;点击移动;月之投射</t>
   </si>
   <si>
     <t>法师</t>
@@ -216,6 +208,9 @@
     <t>骷髅战士</t>
   </si>
   <si>
+    <t>待机;停止;方向移动;点击移动;怪物横砍;怪物技能</t>
+  </si>
+  <si>
     <t>10000,1,1,true;</t>
   </si>
   <si>
@@ -225,7 +220,28 @@
     <t>骷髅骑士</t>
   </si>
   <si>
+    <t>待机;停止;方向移动;点击移动;怪物劈砍;怪物技能</t>
+  </si>
+  <si>
     <t>骷髅弓箭手</t>
+  </si>
+  <si>
+    <t>骷髅战士大</t>
+  </si>
+  <si>
+    <t>骷髅骑士大</t>
+  </si>
+  <si>
+    <t>骷髅弓箭手大</t>
+  </si>
+  <si>
+    <t>哥布林巫医</t>
+  </si>
+  <si>
+    <t>随从默认AI</t>
+  </si>
+  <si>
+    <t>待机;停止;方向移动;点击移动;劈砍;跳劈</t>
   </si>
 </sst>
 </file>
@@ -1172,14 +1188,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1192,14 +1208,13 @@
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="34.75" customWidth="1"/>
     <col min="8" max="8" width="18.5833333333333" customWidth="1"/>
-    <col min="9" max="9" width="26.9166666666667" customWidth="1"/>
-    <col min="10" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="40" customWidth="1"/>
-    <col min="12" max="12" width="40.4166666666667" customWidth="1"/>
-    <col min="13" max="13" width="34.75" customWidth="1"/>
+    <col min="9" max="9" width="33" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40.4166666666667" customWidth="1"/>
+    <col min="12" max="12" width="34.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:13">
+    <row r="1" s="1" customFormat="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1236,37 +1251,34 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:12">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:13">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>17</v>
@@ -1276,9 +1288,6 @@
       </c>
       <c r="L2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:1">
@@ -1298,139 +1307,127 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="1:1">
       <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:9">
+      <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:10">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="2:10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="2:9">
       <c r="B10">
         <v>10000</v>
       </c>
       <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
         <v>33</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>34</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s">
         <v>35</v>
       </c>
-      <c r="F10" t="s">
+      <c r="I10" t="s">
         <v>36</v>
       </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
+    </row>
+    <row r="11" spans="2:9">
       <c r="B11">
         <v>10001</v>
       </c>
       <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
         <v>40</v>
       </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
+    </row>
+    <row r="12" spans="2:9">
       <c r="B12">
         <v>10002</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" t="s">
         <v>35</v>
       </c>
-      <c r="F12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" t="s">
-        <v>37</v>
-      </c>
       <c r="I12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1442,10 +1439,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1459,15 +1456,14 @@
     <col min="7" max="7" width="35.625" customWidth="1"/>
     <col min="8" max="8" width="8.875" customWidth="1"/>
     <col min="9" max="9" width="41.125" customWidth="1"/>
-    <col min="10" max="10" width="16.875" customWidth="1"/>
-    <col min="11" max="11" width="38.1666666666667" customWidth="1"/>
-    <col min="12" max="12" width="35.125" customWidth="1"/>
-    <col min="13" max="14" width="38.75" customWidth="1"/>
-    <col min="15" max="15" width="37.75" customWidth="1"/>
-    <col min="16" max="16" width="21.875" customWidth="1"/>
+    <col min="10" max="10" width="38.1666666666667" customWidth="1"/>
+    <col min="11" max="11" width="35.125" customWidth="1"/>
+    <col min="12" max="13" width="38.75" customWidth="1"/>
+    <col min="14" max="14" width="37.75" customWidth="1"/>
+    <col min="15" max="15" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:15">
+    <row r="1" s="1" customFormat="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1499,60 +1495,54 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:14">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:15">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:1">
@@ -1572,52 +1562,49 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="1:1">
       <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:9">
+      <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:10">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="2:9">
@@ -1625,22 +1612,22 @@
         <v>20000</v>
       </c>
       <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" t="s">
         <v>48</v>
       </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="I10" t="s">
         <v>49</v>
-      </c>
-      <c r="F10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="2:9">
@@ -1648,25 +1635,25 @@
         <v>20001</v>
       </c>
       <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" t="s">
         <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="12" spans="2:9">
@@ -1674,25 +1661,25 @@
         <v>20002</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -1700,121 +1687,412 @@
         <v>20003</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
       <c r="B14">
         <v>20004</v>
       </c>
       <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" t="s">
+        <v>60</v>
+      </c>
+      <c r="M14" t="s">
         <v>61</v>
       </c>
-      <c r="D14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" t="s">
-        <v>54</v>
-      </c>
-      <c r="L14" t="s">
-        <v>62</v>
-      </c>
-      <c r="N14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14">
+    </row>
+    <row r="15" spans="2:13">
       <c r="B15">
         <v>20005</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
-      </c>
-      <c r="L15" t="s">
-        <v>62</v>
-      </c>
-      <c r="N15" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="16" spans="2:14">
+      <c r="K15" t="s">
+        <v>60</v>
+      </c>
+      <c r="M15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
       <c r="B16">
         <v>20006</v>
       </c>
       <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" t="s">
+        <v>60</v>
+      </c>
+      <c r="M16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17">
+        <v>20007</v>
+      </c>
+      <c r="C17" t="s">
         <v>65</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>65</v>
       </c>
-      <c r="E16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" t="s">
         <v>59</v>
       </c>
-      <c r="G16" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="2" t="s">
+      <c r="K17" t="s">
+        <v>60</v>
+      </c>
+      <c r="M17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18">
+        <v>20008</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" t="s">
         <v>53</v>
       </c>
-      <c r="I16" t="s">
+      <c r="G18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" t="s">
+        <v>63</v>
+      </c>
+      <c r="K18" t="s">
         <v>60</v>
       </c>
-      <c r="L16" t="s">
-        <v>62</v>
-      </c>
-      <c r="N16" t="s">
-        <v>63</v>
+      <c r="M18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19">
+        <v>20009</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" t="s">
+        <v>60</v>
+      </c>
+      <c r="M19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="8.58333333333333" customWidth="1"/>
+    <col min="2" max="2" width="6.91666666666667" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="10.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="34.75" customWidth="1"/>
+    <col min="8" max="8" width="18.5833333333333" customWidth="1"/>
+    <col min="9" max="9" width="33" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40.4166666666667" customWidth="1"/>
+    <col min="12" max="12" width="34.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="2:9">
+      <c r="B10">
+        <v>30000</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/ExcelConfig/Datas/actor.xlsx
+++ b/Luban/ExcelConfig/Datas/actor.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680" activeTab="2"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="74">
   <si>
     <t>##var</t>
   </si>
@@ -124,22 +124,31 @@
     <t>int#ref=actor.TbActorNumericConfig</t>
   </si>
   <si>
+    <t>剑圣</t>
+  </si>
+  <si>
+    <t>jiansheng</t>
+  </si>
+  <si>
+    <t>个体;英雄</t>
+  </si>
+  <si>
+    <t>blademaster</t>
+  </si>
+  <si>
     <t>战士</t>
   </si>
   <si>
+    <t>玩家自动释放技能AI</t>
+  </si>
+  <si>
+    <t>待机;停止;方向移动;点击移动;劈砍</t>
+  </si>
+  <si>
     <t>zhanshi</t>
   </si>
   <si>
-    <t>个体;英雄</t>
-  </si>
-  <si>
     <t>warrior</t>
-  </si>
-  <si>
-    <t>玩家自动释放技能AI</t>
-  </si>
-  <si>
-    <t>待机;停止;方向移动;点击移动;劈砍</t>
   </si>
   <si>
     <t>猎人</t>
@@ -1188,14 +1197,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1352,7 +1361,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="2:9">
+    <row r="10" spans="2:9">
       <c r="B10">
         <v>10000</v>
       </c>
@@ -1369,21 +1378,21 @@
         <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="2:9">
       <c r="B11">
         <v>10001</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
@@ -1395,13 +1404,13 @@
         <v>39</v>
       </c>
       <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" t="s">
         <v>37</v>
-      </c>
-      <c r="H11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="2:9">
@@ -1409,25 +1418,51 @@
         <v>10002</v>
       </c>
       <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
         <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>42</v>
       </c>
       <c r="E12" t="s">
         <v>33</v>
       </c>
       <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" t="s">
         <v>43</v>
       </c>
-      <c r="G12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" t="s">
-        <v>40</v>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13">
+        <v>10003</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1495,13 +1530,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>11</v>
@@ -1612,22 +1647,22 @@
         <v>20000</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="2:9">
@@ -1635,25 +1670,25 @@
         <v>20001</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="2:9">
@@ -1661,25 +1696,25 @@
         <v>20002</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -1687,25 +1722,25 @@
         <v>20003</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="2:13">
@@ -1713,31 +1748,31 @@
         <v>20004</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K14" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="2:13">
@@ -1745,31 +1780,31 @@
         <v>20005</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G15" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="I15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" t="s">
         <v>63</v>
       </c>
-      <c r="K15" t="s">
-        <v>60</v>
-      </c>
       <c r="M15" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="2:13">
@@ -1777,31 +1812,31 @@
         <v>20006</v>
       </c>
       <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" t="s">
+        <v>63</v>
+      </c>
+      <c r="M16" t="s">
         <v>64</v>
-      </c>
-      <c r="D16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" t="s">
-        <v>57</v>
-      </c>
-      <c r="K16" t="s">
-        <v>60</v>
-      </c>
-      <c r="M16" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="17" spans="2:13">
@@ -1809,31 +1844,31 @@
         <v>20007</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G17" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I17" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M17" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="2:13">
@@ -1841,31 +1876,31 @@
         <v>20008</v>
       </c>
       <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" t="s">
         <v>66</v>
       </c>
-      <c r="D18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="K18" t="s">
         <v>63</v>
       </c>
-      <c r="K18" t="s">
-        <v>60</v>
-      </c>
       <c r="M18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="2:13">
@@ -1873,31 +1908,31 @@
         <v>20009</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I19" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K19" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1911,7 +1946,7 @@
   <sheetPr/>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -2074,25 +2109,25 @@
         <v>30000</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
         <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/ExcelConfig/Datas/actor.xlsx
+++ b/Luban/ExcelConfig/Datas/actor.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="2" r:id="rId1"/>
     <sheet name="Monster" sheetId="3" r:id="rId2"/>
     <sheet name="Minion" sheetId="4" r:id="rId3"/>
+    <sheet name="Other" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="82">
   <si>
     <t>##var</t>
   </si>
@@ -58,6 +59,9 @@
     <t>org_abilitys</t>
   </si>
   <si>
+    <t>org_status</t>
+  </si>
+  <si>
     <t>possible_drops_by_probability</t>
   </si>
   <si>
@@ -121,6 +125,9 @@
     <t>初始技能</t>
   </si>
   <si>
+    <t>初始状态</t>
+  </si>
+  <si>
     <t>int#ref=actor.TbActorNumericConfig</t>
   </si>
   <si>
@@ -247,10 +254,28 @@
     <t>哥布林巫医</t>
   </si>
   <si>
+    <t>随从哥布林巫医AI</t>
+  </si>
+  <si>
+    <t>待机;停止;方向移动;点击移动;放血疗法</t>
+  </si>
+  <si>
+    <t>弱小</t>
+  </si>
+  <si>
+    <t>士兵A</t>
+  </si>
+  <si>
     <t>随从默认AI</t>
   </si>
   <si>
     <t>待机;停止;方向移动;点击移动;劈砍;跳劈</t>
+  </si>
+  <si>
+    <t>塔1</t>
+  </si>
+  <si>
+    <t>待机;</t>
   </si>
 </sst>
 </file>
@@ -1197,17 +1222,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.58333333333333" customWidth="1"/>
     <col min="2" max="2" width="6.91666666666667" customWidth="1"/>
@@ -1217,13 +1242,13 @@
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="34.75" customWidth="1"/>
     <col min="8" max="8" width="18.5833333333333" customWidth="1"/>
-    <col min="9" max="9" width="33" customWidth="1"/>
-    <col min="10" max="10" width="40" customWidth="1"/>
-    <col min="11" max="11" width="40.4166666666667" customWidth="1"/>
-    <col min="12" max="12" width="34.75" customWidth="1"/>
+    <col min="9" max="11" width="33" customWidth="1"/>
+    <col min="12" max="12" width="40" customWidth="1"/>
+    <col min="13" max="13" width="40.4166666666667" customWidth="1"/>
+    <col min="14" max="14" width="34.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:12">
+    <row r="1" s="1" customFormat="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1254,49 +1279,55 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:12">
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:1">
@@ -1316,49 +1347,52 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="2:9">
@@ -1366,25 +1400,25 @@
         <v>10000</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:9">
@@ -1392,25 +1426,25 @@
         <v>10001</v>
       </c>
       <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s">
         <v>38</v>
       </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="I11" t="s">
         <v>39</v>
-      </c>
-      <c r="G11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="2:9">
@@ -1418,25 +1452,25 @@
         <v>10002</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" t="s">
         <v>42</v>
       </c>
-      <c r="G12" t="s">
-        <v>40</v>
-      </c>
       <c r="H12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -1444,25 +1478,25 @@
         <v>10003</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" t="s">
         <v>45</v>
-      </c>
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1474,13 +1508,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="C10" sqref="C10:I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
@@ -1490,15 +1524,15 @@
     <col min="6" max="6" width="12.5" customWidth="1"/>
     <col min="7" max="7" width="35.625" customWidth="1"/>
     <col min="8" max="8" width="8.875" customWidth="1"/>
-    <col min="9" max="9" width="41.125" customWidth="1"/>
-    <col min="10" max="10" width="38.1666666666667" customWidth="1"/>
-    <col min="11" max="11" width="35.125" customWidth="1"/>
-    <col min="12" max="13" width="38.75" customWidth="1"/>
-    <col min="14" max="14" width="37.75" customWidth="1"/>
-    <col min="15" max="15" width="21.875" customWidth="1"/>
+    <col min="9" max="10" width="41.125" customWidth="1"/>
+    <col min="11" max="11" width="38.1666666666667" customWidth="1"/>
+    <col min="12" max="12" width="35.125" customWidth="1"/>
+    <col min="13" max="14" width="38.75" customWidth="1"/>
+    <col min="15" max="15" width="37.75" customWidth="1"/>
+    <col min="16" max="16" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:14">
+    <row r="1" s="1" customFormat="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1530,54 +1564,60 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:14">
+        <v>49</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:1">
@@ -1597,49 +1637,52 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="2:9">
@@ -1647,22 +1690,22 @@
         <v>20000</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="2:9">
@@ -1670,25 +1713,25 @@
         <v>20001</v>
       </c>
       <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
         <v>51</v>
       </c>
-      <c r="D11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" t="s">
-        <v>49</v>
-      </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="2:9">
@@ -1696,25 +1739,25 @@
         <v>20002</v>
       </c>
       <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="I12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -1722,217 +1765,217 @@
         <v>20003</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
       <c r="B14">
         <v>20004</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I14" t="s">
-        <v>62</v>
-      </c>
-      <c r="K14" t="s">
-        <v>63</v>
-      </c>
-      <c r="M14" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="15" spans="2:13">
+      <c r="L14" t="s">
+        <v>65</v>
+      </c>
+      <c r="N14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
       <c r="B15">
         <v>20005</v>
       </c>
       <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" t="s">
+        <v>68</v>
+      </c>
+      <c r="L15" t="s">
         <v>65</v>
       </c>
-      <c r="D15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="N15" t="s">
         <v>66</v>
       </c>
-      <c r="K15" t="s">
-        <v>63</v>
-      </c>
-      <c r="M15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13">
+    </row>
+    <row r="16" spans="2:14">
       <c r="B16">
         <v>20006</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I16" t="s">
-        <v>60</v>
-      </c>
-      <c r="K16" t="s">
-        <v>63</v>
-      </c>
-      <c r="M16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13">
+        <v>62</v>
+      </c>
+      <c r="L16" t="s">
+        <v>65</v>
+      </c>
+      <c r="N16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
       <c r="B17">
         <v>20007</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I17" t="s">
-        <v>62</v>
-      </c>
-      <c r="K17" t="s">
-        <v>63</v>
-      </c>
-      <c r="M17" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="18" spans="2:13">
+      <c r="L17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
       <c r="B18">
         <v>20008</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I18" t="s">
+        <v>68</v>
+      </c>
+      <c r="L18" t="s">
+        <v>65</v>
+      </c>
+      <c r="N18" t="s">
         <v>66</v>
       </c>
-      <c r="K18" t="s">
-        <v>63</v>
-      </c>
-      <c r="M18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13">
+    </row>
+    <row r="19" spans="2:14">
       <c r="B19">
         <v>20009</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
-      </c>
-      <c r="K19" t="s">
-        <v>63</v>
-      </c>
-      <c r="M19" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="L19" t="s">
+        <v>65</v>
+      </c>
+      <c r="N19" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1944,13 +1987,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.58333333333333" customWidth="1"/>
     <col min="2" max="2" width="6.91666666666667" customWidth="1"/>
@@ -1960,13 +2003,13 @@
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="34.75" customWidth="1"/>
     <col min="8" max="8" width="18.5833333333333" customWidth="1"/>
-    <col min="9" max="9" width="33" customWidth="1"/>
-    <col min="10" max="10" width="40" customWidth="1"/>
-    <col min="11" max="11" width="40.4166666666667" customWidth="1"/>
-    <col min="12" max="12" width="34.75" customWidth="1"/>
+    <col min="9" max="10" width="33" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
+    <col min="12" max="12" width="40.4166666666667" customWidth="1"/>
+    <col min="13" max="13" width="34.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:12">
+    <row r="1" s="1" customFormat="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2003,34 +2046,37 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>17</v>
@@ -2040,6 +2086,9 @@
       </c>
       <c r="L2" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:1">
@@ -2059,75 +2108,309 @@
     </row>
     <row r="6" s="1" customFormat="1" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:1">
       <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="2:10">
+      <c r="B10">
+        <v>30000</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11">
+        <v>30001</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="8.58333333333333" customWidth="1"/>
+    <col min="2" max="2" width="6.91666666666667" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="10.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="34.75" customWidth="1"/>
+    <col min="8" max="8" width="18.5833333333333" customWidth="1"/>
+    <col min="9" max="10" width="33" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
+    <col min="12" max="12" width="40.4166666666667" customWidth="1"/>
+    <col min="13" max="13" width="34.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:1">
+      <c r="A6" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="2:9">
       <c r="B10">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" t="s">
-        <v>72</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H10"/>
       <c r="I10" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
